--- a/classrooms.xlsx
+++ b/classrooms.xlsx
@@ -89,6 +89,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -173,7 +174,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -329,7 +330,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>4</v>
@@ -340,7 +341,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>4</v>
@@ -351,7 +352,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>4</v>
@@ -362,7 +363,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>4</v>
